--- a/DateBase/orders/Fresh bloom Flowers_2025-10-7.xlsx
+++ b/DateBase/orders/Fresh bloom Flowers_2025-10-7.xlsx
@@ -874,6 +874,9 @@
       <c r="C51" t="str">
         <v>577_腊梅白_wax white_undefined_1bunch</v>
       </c>
+      <c r="F51" t="str">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -935,7 +938,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>013242011.5111253551013822121431751240503325531555211091029323555555554512520100</v>
+        <v>013242011.5111253551013822121431751240503325531555211091029323555555554512520102</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Fresh bloom Flowers_2025-10-7.xlsx
+++ b/DateBase/orders/Fresh bloom Flowers_2025-10-7.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L51"/>
+  <dimension ref="A1:L61"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -875,12 +875,95 @@
         <v>577_腊梅白_wax white_undefined_1bunch</v>
       </c>
       <c r="F51" t="str">
-        <v>2</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="C52" t="str">
+        <v>579_腊梅红_wax red_undefined_1bunch</v>
+      </c>
+      <c r="F52" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>13</v>
+      </c>
+      <c r="C53" t="str">
+        <v>2_粉洋桔梗_Pink Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F53" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="C54" t="str">
+        <v>1_白洋桔梗_White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F54" t="str">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="C55" t="str">
+        <v>12_肉粉洋桔梗_Peach Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F55" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="C56" t="str">
+        <v>300_白星_White Gypso_ gypsophila_1kg</v>
+      </c>
+      <c r="F56" t="str">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="C57" t="str">
+        <v>686_百合小粉仙_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F57" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>14</v>
+      </c>
+      <c r="C58" t="str">
+        <v>106_绣球单瓣粉_Hydrangea Pink S_Hydrangea L._1stem</v>
+      </c>
+      <c r="F58" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="C59" t="str">
+        <v>798_朱玉大菊_undefined_undefined_5stems</v>
+      </c>
+      <c r="F59" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="C60" t="str">
+        <v>535_雪果白_snow berry white_undefined_1bunch</v>
+      </c>
+      <c r="F60" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="C61" t="str">
+        <v>780_贝壳草_undefined_undefined_1bunch</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L51"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L61"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -938,7 +1021,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>013242011.5111253551013822121431751240503325531555211091029323555555554512520102</v>
+        <v>013242011.5111253551013822121431751240503325531555211091029323555555554512520102051530159520550</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Fresh bloom Flowers_2025-10-7.xlsx
+++ b/DateBase/orders/Fresh bloom Flowers_2025-10-7.xlsx
@@ -960,6 +960,9 @@
       <c r="C61" t="str">
         <v>780_贝壳草_undefined_undefined_1bunch</v>
       </c>
+      <c r="F61" t="str">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -1021,7 +1024,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>013242011.5111253551013822121431751240503325531555211091029323555555554512520102051530159520550</v>
+        <v>013242011.5111253551013822121431751240503325531555211091029323555555554512520102051530159520555</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Fresh bloom Flowers_2025-10-7.xlsx
+++ b/DateBase/orders/Fresh bloom Flowers_2025-10-7.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L61"/>
+  <dimension ref="A1:L81"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -964,9 +964,175 @@
         <v>5</v>
       </c>
     </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>15</v>
+      </c>
+      <c r="C62" t="str">
+        <v>234_白泡泡_White Bubbles_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F62" t="str">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="C63" t="str">
+        <v>274_仙子之吻_undefined_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F63" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="C64" t="str">
+        <v>624_多丁白_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F64" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" xml:space="preserve">
+      <c r="C65" t="str" xml:space="preserve">
+        <v xml:space="preserve">510_翠珠白_Didiscus caeruleus 
+white_Trachymene Coerulea_1bunch</v>
+      </c>
+      <c r="F65" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="C66" t="str">
+        <v>424_鼠尾白色_veronica white_undefined_1bunch</v>
+      </c>
+      <c r="F66" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="C67" t="str">
+        <v>647_海棠果红_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F67" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>16</v>
+      </c>
+      <c r="C68" t="str">
+        <v>321_雪柳叶_Spiraea  leaves_undefined_1bunch</v>
+      </c>
+      <c r="F68" t="str">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="C69" t="str">
+        <v>320_雪柳花_Spiraea flower white_undefined_1bunch</v>
+      </c>
+      <c r="F69" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" xml:space="preserve">
+      <c r="C70" t="str" xml:space="preserve">
+        <v xml:space="preserve">542_吊米 红_hanging amaranthus
+red_undefined_1bunch</v>
+      </c>
+      <c r="F70" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" xml:space="preserve">
+      <c r="C71" t="str" xml:space="preserve">
+        <v xml:space="preserve">448_吊米 绿_hanging amaranthus
+green_undefined_1bunch</v>
+      </c>
+      <c r="F71" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="C72" t="str">
+        <v>322_喷泉草_Grasses Panicum_undefined_1bunch</v>
+      </c>
+      <c r="F72" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="C73" t="str">
+        <v>401_大飞燕白色_delphinium white_undefined_1bunch</v>
+      </c>
+      <c r="F73" t="str">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="C74" t="str">
+        <v>495_大飞燕深粉色_delphinium pink_undefined_1bunch</v>
+      </c>
+      <c r="F74" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="C75" t="str">
+        <v>411_紫罗兰白_violet white_undefined_1bunch</v>
+      </c>
+      <c r="F75" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="C76" t="str">
+        <v>412_紫罗兰粉_violet pink_undefined_1bunch</v>
+      </c>
+      <c r="F76" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="C77" t="str">
+        <v>319_尤加利叶带果_Eucalyptus leaves with small pods_undefined_1bunch</v>
+      </c>
+      <c r="F77" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="C78" t="str">
+        <v>600_康乃馨复古红_vintage red_undefined_20stems</v>
+      </c>
+      <c r="F78" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="C79" t="str">
+        <v>300_白星_White Gypso_ gypsophila_1kg</v>
+      </c>
+      <c r="F79" t="str">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="C80" t="str">
+        <v>586_洋牡丹白_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F80" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="C81" t="str">
+        <v>585_洋牡丹红_undefined_undefined_1bunch</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L61"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L81"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1024,7 +1190,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>013242011.5111253551013822121431751240503325531555211091029323555555554512520102051530159520555</v>
+        <v>013242011.511125355101382212143175124050332553155521109102932355555555451252010205153015952055595510552555352515205589150</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Fresh bloom Flowers_2025-10-7.xlsx
+++ b/DateBase/orders/Fresh bloom Flowers_2025-10-7.xlsx
@@ -1129,6 +1129,9 @@
       <c r="C81" t="str">
         <v>585_洋牡丹红_undefined_undefined_1bunch</v>
       </c>
+      <c r="F81" t="str">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -1190,7 +1193,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>013242011.511125355101382212143175124050332553155521109102932355555555451252010205153015952055595510552555352515205589150</v>
+        <v>013242011.511125355101382212143175124050332553155521109102932355555555451252010205153015952055595510552555352515205589155</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Fresh bloom Flowers_2025-10-7.xlsx
+++ b/DateBase/orders/Fresh bloom Flowers_2025-10-7.xlsx
@@ -1195,6 +1195,9 @@
       <c r="G2" t="str">
         <v>013242011.511125355101382212143175124050332553155521109102932355555555451252010205153015952055595510552555352515205589155</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
